--- a/biology/Zoologie/Gobie_à_quatre_taches/Gobie_à_quatre_taches.xlsx
+++ b/biology/Zoologie/Gobie_à_quatre_taches/Gobie_à_quatre_taches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_quatre_taches</t>
+          <t>Gobie_à_quatre_taches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltentosteus quadrimaculatus
 Le Gobie à quatre taches (Deltentosteus quadrimaculatus) est une espèce de poissons des eaux côtières de la grande famille des gobiidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_quatre_taches</t>
+          <t>Gobie_à_quatre_taches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Deltentosteus quadrimaculatus (Valenciennes, 1837)[1].
-L'espèce a été initialement classée dans le genre Gobius sous le protonyme Gobius quadrimaculatus Valenciennes, 1837[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Gobie à quatre taches[1].
-Deltentosteus quadrimaculatus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Deltentosteus quadrimaculatus (Valenciennes, 1837).
+L'espèce a été initialement classée dans le genre Gobius sous le protonyme Gobius quadrimaculatus Valenciennes, 1837.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Gobie à quatre taches.
+Deltentosteus quadrimaculatus a pour synonymes :
 Gobius quadrimaculatus quinquemaculatus Ninni, 1938
 Gobius quadrimaculatus trimaculatus Ninni, 1938
 Gobius quadrimaculatus Valenciennes, 1837
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_quatre_taches</t>
+          <t>Gobie_à_quatre_taches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin quadri-, « quatre », et maculatus, « tacheté », fait référence aux quatre taches rondes réparties sur ses flancs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin quadri-, « quatre », et maculatus, « tacheté », fait référence aux quatre taches rondes réparties sur ses flancs.
 </t>
         </is>
       </c>
